--- a/pred_ohlcv/54_21/2020-01-15 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-229120.0005664063</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-432487.0284664062</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-408606.3493664062</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-386741.1739664062</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-390656.7671664062</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-407684.2408664062</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-418588.5654664062</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-418579.5654664062</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-418570.6663664062</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-420648.0588664062</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-435617.8346664062</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-15 FX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 FX ohlcv.xlsx
@@ -1848,7 +1848,7 @@
         <v>-432487.0284664062</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-408606.3493664062</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-386733.2499664062</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-386741.1739664062</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-389628.0148664062</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-389628.0148664062</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-390656.7671664062</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-406207.6602664062</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-406657.6602664062</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-406649.6345664062</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-407684.2408664062</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-418588.5654664062</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-418579.5654664062</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-418570.6663664062</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-421374.0453664062</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-420648.0588664062</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-420629.0127664062</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-424949.0127664062</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-429488.9969664062</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-435341.8346664062</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-435617.8346664062</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-435222.1362664062</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-442980.7066664062</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-446875.1570664062</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-442867.2078664062</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
